--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_UTILES_JARDIN_P2_2025.xlsx
@@ -2956,12 +2956,12 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4601010004</t>
+          <t>4601010005</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO ANTRACITA</t>
+          <t>REGADERA MONDEGO VERDE SECO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -3012,7 +3012,7 @@
         <v>-7</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0</v>
@@ -3047,12 +3047,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4601010005</t>
+          <t>4601010004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>REGADERA MONDEGO VERDE SECO</t>
+          <t>REGADERA MONDEGO ANTRACITA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -3103,7 +3103,7 @@
         <v>-7</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -3138,24 +3138,16 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4602110002</t>
+          <t>4604020001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>15M</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3170,75 +3162,83 @@
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>67.98</v>
+        <v>59.97</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>28.28</v>
+        <v>21.66</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N31" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="N31" s="5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O31" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P31" s="4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T31" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4604020001</t>
+          <t>4602110002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ROLLO 25M TUBERIA PE 6AT/20MM</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>XPANSY HOSE MANGUERA EXTENSIBLE PRO + ACCESORIOS</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>15M</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -3253,59 +3253,59 @@
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>59.97</v>
+        <v>67.98</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>21.66</v>
+        <v>28.28</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O32" s="4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="4" t="n">
-        <v>25</v>
-      </c>
       <c r="Q32" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T32" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5135,166 +5135,166 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>4106010012</t>
+          <t>4603050019</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
+          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>39</v>
+        <v>47.94</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>12.79</v>
+        <v>20.18</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>30.77</v>
+        <v>50</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>102.22</v>
+        <v>88.89</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>10</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4603050019</t>
+          <t>4106010012</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PACK 6 CONOS RIEGO REGULABLES PARA BOTELLA</t>
+          <t>ESCOBA JARDIN PUAS PLANAS MANGO MADERA 1,2M</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>47.94</v>
+        <v>39</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>20.18</v>
+        <v>12.79</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>50</v>
+        <v>30.77</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>20</v>
+      </c>
+      <c r="T55" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6337,12 +6337,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4101140006</t>
+          <t>4101090010</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO RECTO 14 DIENTES</t>
+          <t>AZADA NANTERRE 14CM MANGO MADERA IV</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -6385,7 +6385,7 @@
         <v>-2</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -6420,12 +6420,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>4101090010</t>
+          <t>4101140006</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>AZADA NANTERRE 14CM MANGO MADERA IV</t>
+          <t>RASTRILLO RECTO 14 DIENTES</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -6468,7 +6468,7 @@
         <v>-2</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0</v>
@@ -9512,166 +9512,166 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4301010008</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
+          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>47.8</v>
+        <v>29.95</v>
       </c>
       <c r="J105" s="4" t="n">
-        <v>27.3</v>
+        <v>12.55</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>-4</v>
+        <v>19</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S105" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T105" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W105" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>4301010008</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR ROJO 1L ECLOZ</t>
+          <t>KIT SEMILLERO TUBA CON TAPA+ BANDEJA 24 HUECOS</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>29.95</v>
+        <v>47.8</v>
       </c>
       <c r="J106" s="4" t="n">
-        <v>12.55</v>
+        <v>27.3</v>
       </c>
       <c r="K106" s="4" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
       <c r="L106" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M106" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="P106" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q106" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R106" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S106" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T106" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T106" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W106" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10524,12 +10524,12 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>4604040004</t>
+          <t>4604040001</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>DIFUSOR LARGO C/TOB UNISPRAY 415</t>
+          <t>DIFUSOR LARGO C/TOB UNISPRAY 412</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr"/>
@@ -10551,13 +10551,13 @@
         <v>3</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>26.97</v>
+        <v>26.25</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
@@ -10569,50 +10569,50 @@
         <v>4.4</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T117" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T117" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>4604040001</t>
+          <t>4604040004</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>DIFUSOR LARGO C/TOB UNISPRAY 412</t>
+          <t>DIFUSOR LARGO C/TOB UNISPRAY 415</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr"/>
@@ -10634,13 +10634,13 @@
         <v>3</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>26.25</v>
+        <v>26.97</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>10.5</v>
+        <v>11.1</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L118" s="4" t="n">
         <v>0</v>
@@ -10652,38 +10652,38 @@
         <v>4.4</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T118" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T118" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U118" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V118" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W118" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>T43</t>
+          <t>T39</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -10837,7 +10837,7 @@
         <v>-1</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q120" s="4" t="n">
         <v>0</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>T39</t>
+          <t>T43</t>
         </is>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -10928,7 +10928,7 @@
         <v>-1</v>
       </c>
       <c r="P121" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q121" s="4" t="n">
         <v>0</v>
@@ -11295,17 +11295,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>4502020003</t>
+          <t>4401060001</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>BOTAS GOMA ALTA VERDE</t>
+          <t>BIRDNET</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>T42</t>
+          <t>4X12</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -11315,43 +11315,43 @@
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G126" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H126" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J126" s="4" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="K126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I126" s="4" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="J126" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K126" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N126" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O126" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="Q126" s="4" t="n">
         <v>0</v>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="U126" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V126" s="4" t="inlineStr">
@@ -11386,17 +11386,17 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>4401060001</t>
+          <t>4502020003</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>BIRDNET</t>
+          <t>BOTAS GOMA ALTA VERDE</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>4X12</t>
+          <t>T42</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -11406,25 +11406,25 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F127" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G127" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>25</v>
+        <v>21.99</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>10.33</v>
+        <v>7.84</v>
       </c>
       <c r="K127" s="4" t="n">
         <v>0</v>
@@ -11433,16 +11433,16 @@
         <v>0</v>
       </c>
       <c r="M127" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N127" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O127" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P127" s="4" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="Q127" s="4" t="n">
         <v>0</v>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V127" s="4" t="inlineStr">
@@ -11477,24 +11477,32 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>4201060001</t>
+          <t>4401060001</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>CORTASETOS HOJA ONDULADA JD</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr"/>
-      <c r="D128" s="3" t="inlineStr"/>
+          <t>BIRDNET</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>8X10</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G128" s="4" t="n">
@@ -11525,7 +11533,7 @@
         <v>-1</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="Q128" s="4" t="n">
         <v>0</v>
@@ -11560,32 +11568,24 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>4401060001</t>
+          <t>4201060001</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>BIRDNET</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>8X10</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CORTASETOS HOJA ONDULADA JD</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr"/>
+      <c r="D129" s="3" t="inlineStr"/>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F129" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G129" s="4" t="n">
@@ -11616,7 +11616,7 @@
         <v>-1</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="Q129" s="4" t="n">
         <v>0</v>
@@ -12165,12 +12165,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>4103070007</t>
+          <t>4103070008</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
+          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
@@ -12213,7 +12213,7 @@
         <v>-1</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>0</v>
@@ -12248,12 +12248,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>4103070008</t>
+          <t>4103070007</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>AZADA LANZA FORJADA CON MANGO 40CM</t>
+          <t>AZADA HORQUILLA FORJADA CON MANGO 40CM</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
@@ -12296,7 +12296,7 @@
         <v>-1</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>0</v>
@@ -14119,45 +14119,37 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4501020001</t>
+          <t>4105090006</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD BALCONES Y TERRAZAS</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PINCEL BL 5GR</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.46</v>
+        <v>18.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.94</v>
+        <v>7.84</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>0</v>
@@ -14166,16 +14158,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0</v>
@@ -14193,7 +14185,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -14210,55 +14202,63 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4105090006</t>
+          <t>4501020001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PINCEL BL 5GR</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>GUANTES JD BALCONES Y TERRAZAS</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N6" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0</v>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -15594,24 +15594,16 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4603020007</t>
+          <t>4603010030</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>3I4M1</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MICRO 3 VARI-JET 180°</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15626,13 +15618,13 @@
         <v>90</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>16.14</v>
+        <v>16.35</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>6.44</v>
+        <v>6.61</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -15641,16 +15633,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
@@ -15668,7 +15660,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -15685,16 +15677,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4603010030</t>
+          <t>4603020007</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MICRO 3 VARI-JET 180°</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>ADAPTADOR GRIFO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>3I4M1</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -15709,13 +15709,13 @@
         <v>90</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>16.35</v>
+        <v>16.14</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>6.61</v>
+        <v>6.44</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>0</v>
@@ -15724,16 +15724,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0</v>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -6 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -15950,24 +15950,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4201010004</t>
+          <t>4101090008</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+          <t>AZUELA-HORQUILLA MANGO MADERA 130CM</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -15998,7 +15998,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="4" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0</v>
@@ -16033,69 +16033,61 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4105080012</t>
+          <t>4201010004</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PLATO RECTANGULAR BONSAI COLORES</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>20CM</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TIJERA DE CORTE DE HOJA CLASIC</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>13.98</v>
+        <v>16.5</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>4.73</v>
+        <v>6.82</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>0</v>
@@ -16107,33 +16099,41 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 21/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4101090008</t>
+          <t>4105080012</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>AZUELA-HORQUILLA MANGO MADERA 130CM</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>PLATO RECTANGULAR BONSAI COLORES</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>20CM</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
           <t>41</t>
@@ -16148,37 +16148,37 @@
         <v>90</v>
       </c>
       <c r="H28" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="K28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N28" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>0</v>
@@ -16190,17 +16190,17 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 21/04/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -16389,61 +16389,69 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4105090009</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>POWER GEL BL 3GR</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>TAPON 16MM</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>15.98</v>
+        <v>10.47</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>6.6</v>
+        <v>2.05</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>0</v>
@@ -16455,34 +16463,34 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4603020021</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>TE 16 MM</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>10UD</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -16504,31 +16512,31 @@
         <v>90</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>10.47</v>
+        <v>13.6</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>2.05</v>
+        <v>4.64</v>
       </c>
       <c r="K32" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>26</v>
@@ -16546,7 +16554,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -16563,69 +16571,61 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4603020021</t>
+          <t>4105090009</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TE 16 MM</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>POWER GEL BL 3GR</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>13.6</v>
+        <v>15.98</v>
       </c>
       <c r="J33" s="4" t="n">
-        <v>4.64</v>
+        <v>6.6</v>
       </c>
       <c r="K33" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>28.89</v>
+        <v>0</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>0</v>
@@ -16637,17 +16637,17 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 138 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -19497,12 +19497,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>4403020014</t>
+          <t>4403020017</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
+          <t>MINI KIT CERAMICA - ELEFANTE/LEON</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19545,7 +19545,7 @@
         <v>-2</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0</v>
@@ -19580,12 +19580,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>4403020017</t>
+          <t>4403020014</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>MINI KIT CERAMICA - ELEFANTE/LEON</t>
+          <t>KIT MACETA DE TERRACOTA 8CM - MIMOSA SENSITIVA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -19628,7 +19628,7 @@
         <v>-2</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0</v>
@@ -20616,55 +20616,63 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>4202010001</t>
+          <t>4501030001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="3" t="inlineStr"/>
+          <t>GUANTES JD PLANTACIONES</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H80" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I80" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J80" s="4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N80" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0</v>
@@ -20682,7 +20690,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -20699,45 +20707,37 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>4501030001</t>
+          <t>4202010001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD PLANTACIONES</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>T10</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARCO SIERRA CON HOJA TRONZ WOLFPACK</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr"/>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>11.98</v>
+        <v>9.99</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>5.44</v>
+        <v>3.8</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
@@ -20746,16 +20746,16 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21229,12 +21229,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>4104010011</t>
+          <t>4104010010</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21277,7 +21277,7 @@
         <v>-1</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q87" s="4" t="n">
         <v>0</v>
@@ -21312,12 +21312,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>4104010010</t>
+          <t>4104010011</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO 7 DIENTES KIDS GARDEN VERDE</t>
+          <t>RASTRILLO 7 DIENTES KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
@@ -21360,7 +21360,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="4" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0</v>
@@ -21743,12 +21743,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>4104010000</t>
+          <t>4104010008</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>PALA KIDS GARDEN ROSA</t>
+          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
@@ -21791,7 +21791,7 @@
         <v>-1</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="Q93" s="4" t="n">
         <v>0</v>
@@ -21909,12 +21909,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>4104010008</t>
+          <t>4104010000</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA METALICA KIDS GARDEN AZUL</t>
+          <t>PALA KIDS GARDEN ROSA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
@@ -21957,7 +21957,7 @@
         <v>-1</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>0</v>
@@ -22174,16 +22174,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>4603020009</t>
+          <t>4603010011</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr"/>
-      <c r="D98" s="3" t="inlineStr"/>
+          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22201,10 +22209,10 @@
         <v>3</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="J98" s="4" t="n">
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
       <c r="K98" s="4" t="n">
         <v>30</v>
@@ -22222,59 +22230,51 @@
         <v>7</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T98" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>4603010011</t>
+          <t>4603020009</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPIDER-R 0-60L/H</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ADAPTADOR HEMBRA 12-16 X1/2-3/4</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr"/>
+      <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -22292,10 +22292,10 @@
         <v>3</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
       <c r="K99" s="4" t="n">
         <v>30</v>
@@ -22313,35 +22313,35 @@
         <v>7</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="R99" s="4" t="n">
-        <v>88.89</v>
+        <v>28.89</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T99" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T99" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W99" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -22613,31 +22613,39 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>4403020008</t>
+          <t>4604050016</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>PACK 20 PASTILLAS COCO 50MM</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr"/>
-      <c r="D103" s="3" t="inlineStr"/>
+          <t>TAPON FINAL</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>20MM</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103" s="4" t="n">
         <v>8.75</v>
@@ -22652,16 +22660,16 @@
         <v>0</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q103" s="4" t="n">
         <v>0</v>
@@ -22679,7 +22687,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22787,39 +22795,31 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>4604050016</t>
+          <t>4403020008</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>TAPON FINAL</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>20MM</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PACK 20 PASTILLAS COCO 50MM</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105" s="4" t="n">
         <v>8.75</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="M105" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q105" s="4" t="n">
         <v>0</v>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23218,17 +23218,17 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>4603030002</t>
+          <t>4401070003</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>TAPON 16MM</t>
+          <t>PROTECTOR  FRUTA BLANCO</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>4UD</t>
+          <t>17X22</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -23238,88 +23238,88 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T110" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T110" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>4401070003</t>
+          <t>4603030002</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>PROTECTOR  FRUTA BLANCO</t>
+          <t>TAPON 16MM</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>17X22</t>
+          <t>4UD</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -23329,71 +23329,71 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S111" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T111" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T111" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -25263,24 +25263,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4103090006</t>
+          <t>4602030001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CUCHILLO QUITAHIERBAS TRIMAT</t>
+          <t>ADAPTADOR DE GRIFO 3/4</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -25311,7 +25311,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -25346,24 +25346,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4602030001</t>
+          <t>4103090006</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR DE GRIFO 3/4</t>
+          <t>CUCHILLO QUITAHIERBAS TRIMAT</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -25394,7 +25394,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
@@ -27948,16 +27948,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -27972,7 +27980,7 @@
         <v>90</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>4.95</v>
@@ -27981,89 +27989,81 @@
         <v>2.05</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T45" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T45" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4504010001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>25I3/4</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COJIN JARDINERO JD</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>4.95</v>
@@ -28078,16 +28078,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N46" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="N46" s="5" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O46" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -28122,24 +28122,16 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4604050017</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TAPON ROSCA HEMBRA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>3I4P</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H 10UD</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -28154,7 +28146,7 @@
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>4.95</v>
@@ -28163,81 +28155,89 @@
         <v>2.05</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>7.3</v>
+        <v>1.5</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-5</v>
+        <v>9</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T47" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4504010001</t>
+          <t>4604050017</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>COJIN JARDINERO JD</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>TAPON ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>3I4P</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>4.95</v>
@@ -28252,16 +28252,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>1.5</v>
+        <v>7.3</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -28470,17 +28470,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>4603020011</t>
+          <t>4105040014</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ADAPTADOR MACHO 16MM</t>
+          <t>BOLSA 50 BRIDAS NEGRA</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>20CM</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -28490,88 +28490,88 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>4.76</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.93</v>
+        <v>5.06</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T51" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>4105040014</t>
+          <t>4603020011</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BOLSA 50 BRIDAS NEGRA</t>
+          <t>ADAPTADOR MACHO 16MM</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>20CM</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -28581,71 +28581,71 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H52" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J52" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K52" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J52" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="K52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N52" s="5" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T52" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -28826,17 +28826,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>4604060003</t>
+          <t>4603020017</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
+          <t>ENLACE 16MM</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>1I2P</t>
+          <t>25UD</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -28858,13 +28858,13 @@
         <v>90</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>0</v>
@@ -28873,16 +28873,16 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>10.3</v>
+        <v>1.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -28900,7 +28900,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -28917,17 +28917,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>4603020017</t>
+          <t>4604060003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 16MM</t>
+          <t>RAIN BOBINA RECORTABLE PROLONGADOR</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>25UD</t>
+          <t>1I2P</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -28949,13 +28949,13 @@
         <v>90</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>3.99</v>
+        <v>4.69</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -28964,16 +28964,16 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>1.5</v>
+        <v>10.3</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -7 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -29356,12 +29356,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>4602180012</t>
+          <t>4603010028</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
+          <t>MICRO 10 MAXI-JET 90°</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -29383,10 +29383,10 @@
         <v>1</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>3.49</v>
+        <v>3.99</v>
       </c>
       <c r="J61" s="4" t="n">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="K61" s="4" t="n">
         <v>0</v>
@@ -29404,7 +29404,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Q61" s="4" t="n">
         <v>0</v>
@@ -29439,32 +29439,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>4501030002</t>
+          <t>4602180012</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -29474,13 +29466,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="J62" s="4" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="K62" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62" s="4" t="n">
         <v>0</v>
@@ -29492,16 +29484,16 @@
         <v>1.5</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>0</v>
+        <v>12.22</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>0</v>
@@ -29513,17 +29505,17 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -29535,7 +29527,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELICOIDAL</t>
+          <t>ENLACE RAPIDO BIMATERIA STOP MANGUERA HELIC</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -29563,7 +29555,7 @@
         <v>1.23</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
         <v>0</v>
@@ -29575,16 +29567,16 @@
         <v>1.5</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>12.22</v>
+        <v>0</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>0</v>
@@ -29596,41 +29588,49 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 828 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>4603010028</t>
+          <t>4501030002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MICRO 10 MAXI-JET 90°</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>GUANTES JD TRATAMIENTO TALLA 9</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -29661,7 +29661,7 @@
         <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -31543,24 +31543,32 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>4402010003</t>
+          <t>4603010017</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO MADERA</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr"/>
-      <c r="D86" s="3" t="inlineStr"/>
+          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -31570,13 +31578,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
         <v>0</v>
@@ -31588,70 +31596,62 @@
         <v>1.5</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>88.89</v>
+        <v>0</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T86" s="8" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T86" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>4603010017</t>
+          <t>4402010003</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>GOTERO TURBULENTO BANDERA 4L/H</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO MADERA</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr"/>
+      <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -31661,13 +31661,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="J87" s="4" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K87" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L87" s="4" t="n">
         <v>0</v>
@@ -31679,38 +31679,38 @@
         <v>1.5</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P87" s="4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>0</v>
+        <v>88.89</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T87" s="8" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>DESCUENTO PREVENTIVO: Aplicar descuento 10% para acelerar rotación. Reducir compras 40% próxima temporada. Monitorear evolución semanal.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -31883,12 +31883,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>4103030001</t>
+          <t>4103020001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>ESCARIFICADOR AZUL JD</t>
+          <t>HORCA AZUL JD</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
@@ -31931,7 +31931,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0</v>
@@ -31966,12 +31966,12 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>4103020001</t>
+          <t>4103030001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>HORCA AZUL JD</t>
+          <t>ESCARIFICADOR AZUL JD</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
@@ -32014,7 +32014,7 @@
         <v>-1</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>0</v>
@@ -32654,24 +32654,16 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>4604050023</t>
+          <t>4602180004</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>TERMINAL ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DERIVACION EN "Y"</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr"/>
+      <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -32689,10 +32681,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>2.5</v>
+        <v>1.99</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>1.03</v>
+        <v>0.61</v>
       </c>
       <c r="K99" s="4" t="n">
         <v>0</v>
@@ -32710,7 +32702,7 @@
         <v>-1</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Q99" s="4" t="n">
         <v>0</v>
@@ -32745,16 +32737,24 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>4602180004</t>
+          <t>4604050023</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>DERIVACION EN "Y"</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr"/>
-      <c r="D100" s="3" t="inlineStr"/>
+          <t>TERMINAL ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -32772,10 +32772,10 @@
         <v>1</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>0.61</v>
+        <v>1.03</v>
       </c>
       <c r="K100" s="4" t="n">
         <v>0</v>
@@ -32793,7 +32793,7 @@
         <v>-1</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>0</v>
@@ -34332,24 +34332,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>4301040003</t>
+          <t>4503020001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
+          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>PROTECCION PERSONAL</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -34368,7 +34368,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -34415,24 +34415,16 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>4602160004</t>
+          <t>4604060004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARQUETA CUADRADA 1 VALVULA</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34474,13 +34466,13 @@
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>98.89</v>
+        <v>12.22</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="9" t="inlineStr">
         <is>
@@ -34489,12 +34481,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -34506,32 +34498,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>4105060006</t>
+          <t>4604060001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CUBO JARDIN ANTRACITA</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>90L</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -34550,7 +34534,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -34559,19 +34543,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>58.89</v>
+        <v>88.89</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="9" t="inlineStr">
         <is>
@@ -34580,12 +34564,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -34597,24 +34581,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>4101140003</t>
+          <t>4602100001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -34633,7 +34617,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -34642,7 +34626,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -34663,7 +34647,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -34680,24 +34664,16 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>4602090004</t>
+          <t>4602180016</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA FLEX 25M</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MANGUITO RED 1X3/4" CONT</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -34724,7 +34700,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -34733,19 +34709,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>98.89</v>
+        <v>12.22</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6" s="9" t="inlineStr">
         <is>
@@ -34754,12 +34730,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -34771,24 +34747,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>4604060001</t>
+          <t>4301010009</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CIRCULAR 2 VALVULA</t>
+          <t>PULVERIZADOR 0,6L ECLOZ</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -34807,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -34816,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -34854,32 +34830,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>4602090006</t>
+          <t>4101140003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>19MM</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RASTRILLO JARDIN REGULABLE MARIPOSA CON MANGO</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -34898,7 +34866,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -34907,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -34928,7 +34896,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -35028,17 +34996,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+          <t>PULVERIZADOR MATABI BERRY</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>5L</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -35048,12 +35016,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -35072,7 +35040,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -35081,19 +35049,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>17.78</v>
+        <v>66.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -35102,12 +35070,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -35119,24 +35087,16 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>4603010008</t>
+          <t>4603050006</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>10UD</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PUNZON PERFORADOR 4MM</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35210,32 +35170,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>4605010014</t>
+          <t>4104010020</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ESCOBA CESPED JUNIOR</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -35254,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -35263,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
@@ -35284,7 +35236,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -35301,24 +35253,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>4401060003</t>
+          <t>4105040028</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TREEGUARD 0,2X0,5M</t>
+          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -35337,7 +35289,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -35346,7 +35298,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -35367,7 +35319,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -35384,24 +35336,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>4201060008</t>
+          <t>4106010002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CORTASETOS NATURECUT FSC 100%</t>
+          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -35435,10 +35387,10 @@
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>98.89</v>
+        <v>68.89</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>10</v>
@@ -35455,7 +35407,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -35467,24 +35419,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>4106010022</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -35503,7 +35463,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -35512,19 +35472,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>102.22</v>
+        <v>17.78</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T15" s="9" t="inlineStr">
         <is>
@@ -35533,12 +35493,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -35550,16 +35510,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>4602100001</t>
+          <t>4604050005</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA LATFLEX REFORZADO 19MM  X METRO</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
+          <t>CODO ROSCA HEMBRA</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>25I3/4</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -35601,13 +35569,13 @@
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T16" s="9" t="inlineStr">
         <is>
@@ -35616,12 +35584,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -35633,32 +35601,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>4603010024</t>
+          <t>4402010002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>25UD</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERMOMETRO PARED BLANCO</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -35692,13 +35652,13 @@
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="9" t="inlineStr">
         <is>
@@ -35707,12 +35667,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -35724,17 +35684,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>4604050005</t>
+          <t>4602090006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA HEMBRA</t>
+          <t>MANGUERA TRICOTADO NO TORSION X METRO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>25I3/4</t>
+          <t>19MM</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -35768,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -35777,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>28.89</v>
+        <v>102.22</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T18" s="9" t="inlineStr">
         <is>
@@ -35798,12 +35758,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -35898,24 +35858,32 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>4403040002</t>
+          <t>4602160004</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr"/>
+          <t>PORTAMANGUERA AUTOMATICO ROLLUP</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -35934,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -35943,19 +35911,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20" s="9" t="inlineStr">
         <is>
@@ -35964,12 +35932,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -35981,24 +35949,32 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>4403020010</t>
+          <t>4603010024</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-DRIP 4L/H</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>25UD</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -36032,10 +36008,10 @@
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>12.22</v>
+        <v>28.89</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>0</v>
@@ -36052,7 +36028,7 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -36064,32 +36040,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>4604050006</t>
+          <t>4105070001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CODO ROSCA MACHO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>20I1/2</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -36108,7 +36076,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -36117,16 +36085,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>28.89</v>
+        <v>12.22</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>0</v>
@@ -36143,7 +36111,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -36155,24 +36123,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>4106010002</t>
+          <t>4602130001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRER DOMESTICO (NO VENTA)</t>
+          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -36191,7 +36159,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -36200,16 +36168,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>68.89</v>
+        <v>98.89</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>10</v>
@@ -36226,7 +36194,7 @@
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -36238,24 +36206,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>4605010001</t>
+          <t>4106010020</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
+          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -36274,7 +36242,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -36283,19 +36251,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T24" s="9" t="inlineStr">
         <is>
@@ -36304,12 +36272,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -36321,32 +36289,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4603010004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>3I5L</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -36365,7 +36325,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -36374,19 +36334,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>88.89</v>
+        <v>12.22</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T25" s="9" t="inlineStr">
         <is>
@@ -36395,12 +36355,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -36412,24 +36372,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>4106010020</t>
+          <t>4201060008</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARREND IND FIBRA RIG PP 50CM (NO VENTA)</t>
+          <t>CORTASETOS NATURECUT FSC 100%</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -36448,7 +36408,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -36457,19 +36417,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T26" s="9" t="inlineStr">
         <is>
@@ -36478,12 +36438,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -36495,17 +36455,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>4301020003</t>
+          <t>4101170006</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR MATABI BERRY</t>
+          <t>MANGO MADERA AZADA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>5L</t>
+          <t>900X32</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -36515,12 +36475,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -36539,7 +36499,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -36548,16 +36508,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>66.67</v>
+        <v>68.89</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>10</v>
@@ -36574,7 +36534,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 30/03/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -36586,24 +36546,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>4201020006</t>
+          <t>4403020010</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CORTARRAMAS EASYCUT</t>
+          <t>KIT SEMILLERO FIBRA CON TAPA+BANDEJA 24HUECOS 4X4</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -36622,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -36631,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>98.89</v>
+        <v>12.22</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T28" s="9" t="inlineStr">
         <is>
@@ -36652,12 +36612,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -36669,24 +36629,32 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>4301010009</t>
+          <t>4602090004</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PULVERIZADOR 0,6L ECLOZ</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
+          <t>MANGUERA FLEX 25M</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PULVERIZACION</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -36705,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -36714,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>88.89</v>
+        <v>98.89</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>10</v>
@@ -36740,7 +36708,7 @@
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -36752,24 +36720,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>4105040028</t>
+          <t>4605010014</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ESPATULA SOLADOR 55CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>PROGRAMADOR RAIN BIRD WPX 9V</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -36788,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -36797,7 +36773,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
@@ -36818,7 +36794,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.83€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -36835,16 +36811,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>4604060004</t>
+          <t>4602090002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ARQUETA CUADRADA 1 VALVULA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>MANGUERA CLASSIC 20M</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>15MM</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
           <t>46</t>
@@ -36871,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -36880,19 +36864,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>12.22</v>
+        <v>98.89</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31" s="9" t="inlineStr">
         <is>
@@ -36901,12 +36885,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -36918,12 +36902,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>4603020005</t>
+          <t>4602010001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ENLACE 4UD 16-12MM</t>
+          <t>LANZA REGULABLE CON ACOPLE</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -36954,7 +36938,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -36963,19 +36947,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>28.89</v>
+        <v>88.89</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T32" s="9" t="inlineStr">
         <is>
@@ -36984,12 +36968,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/05/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -37001,24 +36985,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>4105070001</t>
+          <t>4203010005</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CINTA PARA INJERTAR PLANTAS (3CM) 100M</t>
+          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -37037,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -37046,19 +37030,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>12.22</v>
+        <v>96.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" s="9" t="inlineStr">
         <is>
@@ -37067,12 +37051,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 05/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -37084,24 +37068,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>4402010002</t>
+          <t>4301040003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED BLANCO</t>
+          <t>PULVERIZADOR MATABI E1 ELECTRIC 1L</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -37120,7 +37104,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -37129,7 +37113,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
@@ -37167,24 +37151,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>4602010001</t>
+          <t>4106010010</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>LANZA REGULABLE CON ACOPLE</t>
+          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -37203,7 +37187,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -37212,19 +37196,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T35" s="9" t="inlineStr">
         <is>
@@ -37233,12 +37217,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -37250,24 +37234,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>4203010005</t>
+          <t>4106010021</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>HUERTO ELEVADO PAPRIKA 80X40X87CM 50L</t>
+          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PODA</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -37301,13 +37285,13 @@
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>96.67</v>
+        <v>102.22</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T36" s="9" t="inlineStr">
         <is>
@@ -37316,12 +37300,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -37333,24 +37317,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>4603050006</t>
+          <t>4105060005</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>PUNZON PERFORADOR 4MM</t>
+          <t>CARRETILLA OBRA METALICA AMARILLA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -37369,7 +37353,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -37378,19 +37362,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>88.89</v>
+        <v>102.22</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T37" s="9" t="inlineStr">
         <is>
@@ -37399,12 +37383,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -37416,24 +37400,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>4602180016</t>
+          <t>4106010022</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>MANGUITO RED 1X3/4" CONT</t>
+          <t>MANGO MADERA ROSCA 1150X22MM CEP RAICES (NO VENTA)</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -37452,7 +37436,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -37461,19 +37445,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>12.22</v>
+        <v>102.22</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T38" s="9" t="inlineStr">
         <is>
@@ -37482,12 +37466,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -37499,24 +37483,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>4602180009</t>
+          <t>4402010004</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>DISTRIBUIDOR CUADRUPLE</t>
+          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -37535,7 +37519,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -37544,16 +37528,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>98.89</v>
+        <v>88.89</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>10</v>
@@ -37570,7 +37554,7 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 12/03/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -37582,24 +37566,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>4106010010</t>
+          <t>4201020006</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO BARRENDERO PP F PROEX SIN MANGO (NO VENTA)</t>
+          <t>CORTARRAMAS EASYCUT</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PODA</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -37618,7 +37602,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -37627,19 +37611,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>102.22</v>
+        <v>98.89</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T40" s="9" t="inlineStr">
         <is>
@@ -37648,12 +37632,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -37748,32 +37732,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>4602090002</t>
+          <t>4403040002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>MANGUERA CLASSIC 20M</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>15MM</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SET 15 MACETAS PP MARRON 9X6,8CM</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -37792,7 +37768,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -37801,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>98.89</v>
+        <v>12.22</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="9" t="inlineStr">
         <is>
@@ -37822,12 +37798,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -37839,24 +37815,32 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>4503020001</t>
+          <t>4301020003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>DELANTAL IMPERMEABLE RECOLECCION 76X43X44CM</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>PULVERIZADOR MATABI BERRY</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>3I5L</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION PERSONAL</t>
+          <t>PULVERIZACION</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -37875,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -37884,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
@@ -37922,24 +37906,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>4105060005</t>
+          <t>4401060003</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CARRETILLA OBRA METALICA AMARILLA</t>
+          <t>TREEGUARD 0,2X0,5M</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>PROTECCION CULTIVO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -37958,7 +37942,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -37967,7 +37951,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -37988,7 +37972,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -38005,24 +37989,32 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>4402010004</t>
+          <t>4603010008</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARED INTERIOR EXTERIOR CHAPA METALICA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>GOTERO AUTOCOMPENSADO AUTO-MAT 2L/H</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>10UD</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PROTECCION CULTIVO</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -38088,24 +38080,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>4104010020</t>
+          <t>4605010001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ESCOBA CESPED JUNIOR</t>
+          <t>PROGRAMADOR DE GRIFO AQUA CONTROL DISPLAY LCD</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -38124,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -38133,19 +38125,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>102.22</v>
+        <v>12.22</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T46" s="9" t="inlineStr">
         <is>
@@ -38154,12 +38146,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -38171,32 +38163,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>4101170006</t>
+          <t>4602180009</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MANGO MADERA AZADA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>900X32</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>DISTRIBUIDOR CUADRUPLE</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -38215,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -38224,16 +38208,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>68.89</v>
+        <v>98.89</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>10</v>
@@ -38250,7 +38234,7 @@
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 30/03/2025</t>
+          <t>Compra 03/03/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -38262,24 +38246,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>4106010021</t>
+          <t>4604050006</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CEPILLO RAICES 5X10 (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>CODO ROSCA MACHO</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>20I1/2</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>UTILES JARDIN</t>
+          <t>RIEGO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -38298,7 +38290,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -38307,19 +38299,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>102.22</v>
+        <v>28.89</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T48" s="9" t="inlineStr">
         <is>
@@ -38328,12 +38320,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -38345,12 +38337,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>4602130001</t>
+          <t>4603020005</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>SET DE MANGUERA FLEX 20M DIAMETRO 15MM</t>
+          <t>ENLACE 4UD 16-12MM</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -38381,7 +38373,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -38390,19 +38382,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>98.89</v>
+        <v>28.89</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T49" s="9" t="inlineStr">
         <is>
@@ -38411,12 +38403,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/03/2025</t>
+          <t>Compra 05/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -38428,24 +38420,32 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>4603010004</t>
+          <t>4105060006</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>GOTERO REGULABLE SPECTRUM-R 0-80L/H C/ ESTACA 25UD</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
+          <t>CUBO JARDIN ANTRACITA</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>RIEGO</t>
+          <t>UTILES JARDIN</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -38473,16 +38473,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>12.22</v>
+        <v>58.89</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>0</v>
@@ -38499,7 +38499,7 @@
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
